--- a/Output/Supplementary/IHM_self_reported_race_age.xlsx
+++ b/Output/Supplementary/IHM_self_reported_race_age.xlsx
@@ -427,17 +427,17 @@
         </is>
       </c>
       <c r="C3">
-        <v>11175</v>
+        <v>11174</v>
       </c>
       <c r="D3">
         <v>1712</v>
       </c>
       <c r="E3">
-        <v>0.1531991051454139</v>
+        <v>0.1532128154644711</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1712/11175 (15%)</t>
+          <t>1712/11174 (15%)</t>
         </is>
       </c>
     </row>
